--- a/data/Combined.xlsx
+++ b/data/Combined.xlsx
@@ -1565,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ59"/>
+  <dimension ref="A1:AJ60"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -8060,9 +8060,119 @@
         <v>Danpoo</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>DIFF</v>
+      </c>
+      <c r="B60" t="str">
+        <v>xyz</v>
+      </c>
+      <c r="C60" t="str">
+        <v>KLOPD3412</v>
+      </c>
+      <c r="D60" t="str">
+        <v>-</v>
+      </c>
+      <c r="E60" t="str">
+        <v>3</v>
+      </c>
+      <c r="F60" t="str">
+        <v>14</v>
+      </c>
+      <c r="G60" t="str">
+        <v>12</v>
+      </c>
+      <c r="H60" t="str">
+        <v>14</v>
+      </c>
+      <c r="I60" t="str">
+        <v>30x8x2.5</v>
+      </c>
+      <c r="J60" t="str">
+        <v>424</v>
+      </c>
+      <c r="K60" t="str">
+        <v>-</v>
+      </c>
+      <c r="L60" t="str">
+        <v>4</v>
+      </c>
+      <c r="M60" t="str">
+        <v>Black</v>
+      </c>
+      <c r="N60" t="str">
+        <v>Alloy steel</v>
+      </c>
+      <c r="O60" t="str">
+        <v>choice of screws or glue + Screw cap</v>
+      </c>
+      <c r="P60" t="str">
+        <v>-</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>Danpoo</v>
+      </c>
+      <c r="R60" t="str">
+        <v>14.3</v>
+      </c>
+      <c r="S60" t="str">
+        <v>1</v>
+      </c>
+      <c r="T60" t="str">
+        <v>1452</v>
+      </c>
+      <c r="U60" t="str">
+        <v>100</v>
+      </c>
+      <c r="V60" t="str">
+        <v>14,854.08</v>
+      </c>
+      <c r="W60" t="str">
+        <v>5236</v>
+      </c>
+      <c r="X60" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y60" t="str">
+        <v>133,172</v>
+      </c>
+      <c r="Z60" t="str">
+        <v>CN</v>
+      </c>
+      <c r="AA60" t="str">
+        <v>1425</v>
+      </c>
+      <c r="AB60" t="str">
+        <v>452</v>
+      </c>
+      <c r="AC60" t="str">
+        <v>474</v>
+      </c>
+      <c r="AD60" t="str">
+        <v>5</v>
+      </c>
+      <c r="AE60" t="str">
+        <v>MEISHIMEIQI US</v>
+      </c>
+      <c r="AF60" t="str">
+        <v>Home &amp; Kitchen</v>
+      </c>
+      <c r="AG60" t="str">
+        <v>Large and Bulky</v>
+      </c>
+      <c r="AH60" t="str">
+        <v>FBA</v>
+      </c>
+      <c r="AI60" t="str">
+        <v>2026-01-01</v>
+      </c>
+      <c r="AJ60" t="str">
+        <v>Danpoo</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AJ59"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AJ60"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/Combined.xlsx
+++ b/data/Combined.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="646">
   <si>
     <t>Design</t>
   </si>
@@ -2282,9 +2282,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>31112.200000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>4099.4799999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1677.37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>4332.0599999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>3100.32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
         <v>29</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>2317.5600000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
         <v>30</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>2280.96</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>11485.73</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M13" t="s">
         <v>27</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>60405.680000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1511.46</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>1571.1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>1525.13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>1580.23</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>1361.83</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1498.51</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>1575.19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1480.7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>1226.19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>1262.45</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1214.79</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>15807.580000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>11698.3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>60405.680000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>5</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>11</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>8997.73</v>
       </c>
     </row>
-    <row r="34" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>22</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>618.74</v>
       </c>
     </row>
-    <row r="35" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
         <v>31</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>2081.83</v>
       </c>
     </row>
-    <row r="36" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>16</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>5981.2</v>
       </c>
     </row>
-    <row r="37" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>632.23</v>
       </c>
     </row>
-    <row r="38" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
         <v>29</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>1150.6300000000001</v>
       </c>
     </row>
-    <row r="39" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
         <v>31</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>2879.54</v>
       </c>
     </row>
-    <row r="40" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>32</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1511.46</v>
       </c>
     </row>
-    <row r="41" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>26</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1571.1</v>
       </c>
     </row>
-    <row r="42" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>28</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>1525.13</v>
       </c>
     </row>
-    <row r="43" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
         <v>31</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>1580.23</v>
       </c>
     </row>
-    <row r="44" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>4</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>910.18</v>
       </c>
     </row>
-    <row r="45" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>47</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>949.03</v>
       </c>
     </row>
-    <row r="46" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
         <v>31</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>928.48</v>
       </c>
     </row>
-    <row r="47" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>19</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>546.71</v>
       </c>
     </row>
-    <row r="48" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>37</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>1361.83</v>
       </c>
     </row>
-    <row r="49" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>26</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1498.51</v>
       </c>
     </row>
-    <row r="50" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>28</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>1575.19</v>
       </c>
     </row>
-    <row r="51" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
         <v>31</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>1480.7</v>
       </c>
     </row>
-    <row r="52" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>4</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>794.37</v>
       </c>
     </row>
-    <row r="53" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
         <v>31</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>797.83</v>
       </c>
     </row>
-    <row r="54" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>47</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>802.83</v>
       </c>
     </row>
-    <row r="55" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>20</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="56" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
         <v>22</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>426.4</v>
       </c>
     </row>
-    <row r="57" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
         <v>29</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>1166.93</v>
       </c>
     </row>
-    <row r="58" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>42</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1226.19</v>
       </c>
     </row>
-    <row r="59" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
         <v>26</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>1262.45</v>
       </c>
     </row>
-    <row r="60" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
         <v>31</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>1214.79</v>
       </c>
     </row>
-    <row r="61" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>24</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>2950.93</v>
       </c>
     </row>
-    <row r="62" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>41</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1933.49</v>
       </c>
     </row>
-    <row r="63" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>23</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>422.2</v>
       </c>
     </row>
-    <row r="64" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
         <v>53</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>212.14</v>
       </c>
     </row>
-    <row r="65" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>44</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>560.70000000000005</v>
       </c>
     </row>
-    <row r="66" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
         <v>30</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>576.41</v>
       </c>
     </row>
-    <row r="67" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
         <v>31</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>522.33000000000004</v>
       </c>
     </row>
-    <row r="68" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>39</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>1226.08</v>
       </c>
     </row>
-    <row r="69" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>36</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>857.72</v>
       </c>
     </row>
-    <row r="70" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>35</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>320.55</v>
       </c>
     </row>
-    <row r="71" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
         <v>58</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>215.06</v>
       </c>
     </row>
-    <row r="72" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
         <v>59</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>152.72</v>
       </c>
     </row>
-    <row r="73" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>40</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>559.11</v>
       </c>
     </row>
-    <row r="74" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>27</v>
       </c>
@@ -3443,15 +3443,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ60"/>
+  <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>483</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>483</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>483</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>483</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>483</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>483</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>483</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>483</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>483</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>483</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>483</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>483</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>483</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>483</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>483</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>483</v>
       </c>
@@ -9829,232 +9829,12 @@
       </c>
       <c r="AJ58" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row r="59" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>487</v>
-      </c>
-      <c r="B59" t="s">
-        <v>487</v>
-      </c>
-      <c r="C59" t="s">
-        <v>487</v>
-      </c>
-      <c r="D59" t="s">
-        <v>487</v>
-      </c>
-      <c r="E59" t="s">
-        <v>487</v>
-      </c>
-      <c r="F59" t="s">
-        <v>487</v>
-      </c>
-      <c r="G59" t="s">
-        <v>487</v>
-      </c>
-      <c r="H59" t="s">
-        <v>487</v>
-      </c>
-      <c r="I59" t="s">
-        <v>487</v>
-      </c>
-      <c r="J59" t="s">
-        <v>487</v>
-      </c>
-      <c r="K59" t="s">
-        <v>487</v>
-      </c>
-      <c r="L59" t="s">
-        <v>487</v>
-      </c>
-      <c r="M59" t="s">
-        <v>487</v>
-      </c>
-      <c r="N59" t="s">
-        <v>487</v>
-      </c>
-      <c r="O59" t="s">
-        <v>487</v>
-      </c>
-      <c r="P59" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>487</v>
-      </c>
-      <c r="R59" t="s">
-        <v>487</v>
-      </c>
-      <c r="S59" t="s">
-        <v>487</v>
-      </c>
-      <c r="T59" t="s">
-        <v>487</v>
-      </c>
-      <c r="U59" t="s">
-        <v>487</v>
-      </c>
-      <c r="V59" t="s">
-        <v>487</v>
-      </c>
-      <c r="W59" t="s">
-        <v>487</v>
-      </c>
-      <c r="X59" t="s">
-        <v>487</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>487</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>487</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>487</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>487</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>487</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>487</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>487</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>487</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>487</v>
-      </c>
-      <c r="B60" t="s">
-        <v>487</v>
-      </c>
-      <c r="C60" t="s">
-        <v>487</v>
-      </c>
-      <c r="D60" t="s">
-        <v>487</v>
-      </c>
-      <c r="E60" t="s">
-        <v>487</v>
-      </c>
-      <c r="F60" t="s">
-        <v>487</v>
-      </c>
-      <c r="G60" t="s">
-        <v>487</v>
-      </c>
-      <c r="H60" t="s">
-        <v>487</v>
-      </c>
-      <c r="I60" t="s">
-        <v>487</v>
-      </c>
-      <c r="J60" t="s">
-        <v>487</v>
-      </c>
-      <c r="K60" t="s">
-        <v>487</v>
-      </c>
-      <c r="L60" t="s">
-        <v>487</v>
-      </c>
-      <c r="M60" t="s">
-        <v>487</v>
-      </c>
-      <c r="N60" t="s">
-        <v>487</v>
-      </c>
-      <c r="O60" t="s">
-        <v>487</v>
-      </c>
-      <c r="P60" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>487</v>
-      </c>
-      <c r="R60" t="s">
-        <v>487</v>
-      </c>
-      <c r="S60" t="s">
-        <v>487</v>
-      </c>
-      <c r="T60" t="s">
-        <v>487</v>
-      </c>
-      <c r="U60" t="s">
-        <v>487</v>
-      </c>
-      <c r="V60" t="s">
-        <v>487</v>
-      </c>
-      <c r="W60" t="s">
-        <v>487</v>
-      </c>
-      <c r="X60" t="s">
-        <v>487</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>487</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>487</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>487</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AJ60" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AJ58" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/Combined.xlsx
+++ b/data/Combined.xlsx
@@ -1565,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ59"/>
+  <dimension ref="A1:AJ60"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -8060,9 +8060,119 @@
         <v>Danpoo</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>DIFF</v>
+      </c>
+      <c r="B60" t="str">
+        <v>xyz</v>
+      </c>
+      <c r="C60" t="str">
+        <v>KLOPD34123</v>
+      </c>
+      <c r="D60" t="str">
+        <v>-</v>
+      </c>
+      <c r="E60" t="str">
+        <v>1</v>
+      </c>
+      <c r="F60" t="str">
+        <v>12.3</v>
+      </c>
+      <c r="G60" t="str">
+        <v>123</v>
+      </c>
+      <c r="H60" t="str">
+        <v>125</v>
+      </c>
+      <c r="I60" t="str">
+        <v>36x8x2.5</v>
+      </c>
+      <c r="J60" t="str">
+        <v>12.3</v>
+      </c>
+      <c r="K60" t="str">
+        <v>-</v>
+      </c>
+      <c r="L60" t="str">
+        <v>15</v>
+      </c>
+      <c r="M60" t="str">
+        <v>Gold</v>
+      </c>
+      <c r="N60" t="str">
+        <v>Alloy Steel</v>
+      </c>
+      <c r="O60" t="str">
+        <v>Screw+anchor</v>
+      </c>
+      <c r="P60" t="str">
+        <v>-</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>Danpoo</v>
+      </c>
+      <c r="R60" t="str">
+        <v>999</v>
+      </c>
+      <c r="S60" t="str">
+        <v>12</v>
+      </c>
+      <c r="T60" t="str">
+        <v>12</v>
+      </c>
+      <c r="U60" t="str">
+        <v>100</v>
+      </c>
+      <c r="V60" t="str">
+        <v>14,854.08</v>
+      </c>
+      <c r="W60" t="str">
+        <v>1254</v>
+      </c>
+      <c r="X60" t="str">
+        <v>5</v>
+      </c>
+      <c r="Y60" t="str">
+        <v>124,015</v>
+      </c>
+      <c r="Z60" t="str">
+        <v>CN</v>
+      </c>
+      <c r="AA60" t="str">
+        <v>15</v>
+      </c>
+      <c r="AB60" t="str">
+        <v>5</v>
+      </c>
+      <c r="AC60" t="str">
+        <v>3</v>
+      </c>
+      <c r="AD60" t="str">
+        <v>3</v>
+      </c>
+      <c r="AE60" t="str">
+        <v>Danpoo</v>
+      </c>
+      <c r="AF60" t="str">
+        <v>Home &amp; Kitchen</v>
+      </c>
+      <c r="AG60" t="str">
+        <v>Large and Bulky</v>
+      </c>
+      <c r="AH60" t="str">
+        <v>FBA</v>
+      </c>
+      <c r="AI60" t="str">
+        <v>2026-01-30</v>
+      </c>
+      <c r="AJ60" t="str">
+        <v>Danpoo</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AJ59"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AJ60"/>
   </ignoredErrors>
 </worksheet>
 </file>